--- a/test/fixtures/parse-input.xlsx
+++ b/test/fixtures/parse-input.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="with_header" sheetId="1" r:id="rId1"/>
     <sheet name="without_header" sheetId="2" r:id="rId2"/>
     <sheet name="empty" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>bla, bla, bla 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>text 1</t>
   </si>
@@ -30,24 +32,6 @@
     <t>datetime 3</t>
   </si>
   <si>
-    <t>bla, bla, bla 2</t>
-  </si>
-  <si>
-    <t>bla, bla, bla 3</t>
-  </si>
-  <si>
-    <t>bla, bla, bla 4</t>
-  </si>
-  <si>
-    <t>bla, bla, bla 5</t>
-  </si>
-  <si>
-    <t>bla, bla, bla 6</t>
-  </si>
-  <si>
-    <t>bla, bla, bla 7</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -82,12 +66,51 @@
   </si>
   <si>
     <t>calculated 7</t>
+  </si>
+  <si>
+    <t>array 8</t>
+  </si>
+  <si>
+    <t>bla bla, bla 1</t>
+  </si>
+  <si>
+    <t>bla bla ,bla 2</t>
+  </si>
+  <si>
+    <t>bla bla, bla 3</t>
+  </si>
+  <si>
+    <t>bla bla, bla 4</t>
+  </si>
+  <si>
+    <t>bla, bla bla 5</t>
+  </si>
+  <si>
+    <t>bla bla bla, 6</t>
+  </si>
+  <si>
+    <t>bla bla, bla 7</t>
+  </si>
+  <si>
+    <t>a;;b;;c</t>
+  </si>
+  <si>
+    <t>a;;b</t>
+  </si>
+  <si>
+    <t>;;a</t>
+  </si>
+  <si>
+    <t>;;;;</t>
+  </si>
+  <si>
+    <t>a;;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="11">
     <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yy;@"/>
@@ -97,11 +120,11 @@
     <numFmt numFmtId="169" formatCode="[$-C0A]d\-mmm\-yy\ h:mm"/>
     <numFmt numFmtId="170" formatCode="d\-m\-yyyy\ h:mm"/>
     <numFmt numFmtId="171" formatCode="[$-C0A]dd\-mmm\-yy\ hh:mm"/>
-    <numFmt numFmtId="174" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mmm\-d"/>
-    <numFmt numFmtId="177" formatCode="hh:mm\ dd/mm/yyyy"/>
+    <numFmt numFmtId="172" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="173" formatCode="yyyy\-mmm\-d"/>
+    <numFmt numFmtId="174" formatCode="hh:mm\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,18 +205,18 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,44 +507,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="16.85546875" style="2"/>
+    <col min="1" max="16384" width="16.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>41760</v>
@@ -536,12 +562,15 @@
         <v>-5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B3" s="13">
         <v>41761</v>
@@ -556,12 +585,15 @@
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
         <v>41762</v>
@@ -570,18 +602,21 @@
         <v>41762.159722222219</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7">
         <v>41763</v>
@@ -596,12 +631,15 @@
         <v>23.65</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B6" s="9">
         <v>41764</v>
@@ -616,12 +654,15 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B7" s="14">
         <v>41765</v>
@@ -633,9 +674,9 @@
         <v>41762</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B8" s="11">
         <v>41766</v>
@@ -644,33 +685,38 @@
         <v>41766.326388888891</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="str">
         <f>with_header!A2</f>
-        <v>bla, bla, bla 1</v>
+        <v>bla bla, bla 1</v>
       </c>
       <c r="B1" s="3">
         <f>with_header!B2</f>
@@ -695,17 +741,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>